--- a/output/intraday/riepilogo_intraday_2025-11-27.xlsx
+++ b/output/intraday/riepilogo_intraday_2025-11-27.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:AW3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,159 +687,316 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MNDR</t>
+          <t>AMBR</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="C2" t="n">
-        <v>35.79</v>
+        <v>71.52</v>
       </c>
       <c r="D2" t="n">
-        <v>3250000</v>
+        <v>213510000</v>
       </c>
       <c r="E2" t="n">
-        <v>780000</v>
+        <v>7220000</v>
       </c>
       <c r="F2" t="n">
-        <v>1230000</v>
+        <v>8750000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.71%</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>36.24</v>
-      </c>
+          <t>-8.86%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>8.5</v>
+        <v>0.68</v>
       </c>
       <c r="J2" t="n">
-        <v>10.15</v>
+        <v>3.31</v>
       </c>
       <c r="K2" t="n">
-        <v>2.64</v>
+        <v>2.75</v>
       </c>
       <c r="L2" t="n">
-        <v>2.57</v>
+        <v>2.71</v>
       </c>
       <c r="M2" t="n">
-        <v>2.92</v>
+        <v>3.16</v>
       </c>
       <c r="N2" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="P2" t="n">
-        <v>69200507</v>
+        <v>189157101</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-11-26 15:44:00</t>
+          <t>2025-11-26 10:14:00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2025-11-26 10:57:00</t>
+          <t>2025-11-26 14:48:00</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2.59</v>
+        <v>1.65</v>
       </c>
       <c r="T2" t="n">
-        <v>3.07</v>
+        <v>2.89</v>
       </c>
       <c r="U2" t="n">
-        <v>2.39</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.57</v>
+        <v>2.71</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>2025-11-26 04:45:00</t>
+          <t>2025-11-26 09:12:00</t>
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>2.71</v>
+        <v>2.82</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="AA2" t="n">
-        <v>5987824</v>
+        <v>27571930</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="AD2" t="n">
-        <v>6400568</v>
+        <v>29361126</v>
       </c>
       <c r="AE2" t="n">
         <v>2.88</v>
       </c>
       <c r="AF2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>38314035</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>45592341</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>48098631</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>49449406</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>186353913</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MNDR</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45987</v>
+      </c>
+      <c r="C3" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3250000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>780000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1230000</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>36.24</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="P3" t="n">
+        <v>69200507</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2025-11-26 15:44:00</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2025-11-26 10:57:00</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>2025-11-26 04:45:00</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>5987824</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6400568</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF3" t="n">
         <v>2.48</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG3" t="n">
         <v>8288841</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH3" t="n">
         <v>2.88</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI3" t="n">
         <v>2.48</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ3" t="n">
         <v>19938590</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK3" t="n">
         <v>2.68</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL3" t="n">
         <v>2.88</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM3" t="n">
         <v>2.42</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN3" t="n">
         <v>31648266</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO3" t="n">
         <v>2.44</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP3" t="n">
         <v>2.88</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ3" t="n">
         <v>2.42</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR3" t="n">
         <v>55271190</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS3" t="n">
         <v>2.5</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT3" t="n">
         <v>2.88</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU3" t="n">
         <v>2.42</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV3" t="n">
         <v>67869395</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW3" t="n">
         <v>2.56</v>
       </c>
     </row>
